--- a/data/pca/factorExposure/factorExposure_2009-11-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005217101094796685</v>
+        <v>0.01665635505595394</v>
       </c>
       <c r="C2">
-        <v>-0.00785942000616593</v>
+        <v>-0.001032223080336293</v>
       </c>
       <c r="D2">
-        <v>-0.002644153886493025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007485966240426281</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005138996287636625</v>
+      </c>
+      <c r="F2">
+        <v>0.01161039436688773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.04965545949469222</v>
+        <v>0.09393304610757286</v>
       </c>
       <c r="C4">
-        <v>-0.099334972512533</v>
+        <v>-0.01499080016515323</v>
       </c>
       <c r="D4">
-        <v>-0.04087566935418279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08415542864610252</v>
+      </c>
+      <c r="E4">
+        <v>-0.02830819435545717</v>
+      </c>
+      <c r="F4">
+        <v>-0.03163918734594145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.06585651712400209</v>
+        <v>0.157573391407201</v>
       </c>
       <c r="C6">
-        <v>-0.115032173104861</v>
+        <v>-0.02569749921247218</v>
       </c>
       <c r="D6">
-        <v>0.04131749243416987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02144253768260538</v>
+      </c>
+      <c r="E6">
+        <v>-0.01207398323605441</v>
+      </c>
+      <c r="F6">
+        <v>-0.04590566561386309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02475166636565858</v>
+        <v>0.06273685680834877</v>
       </c>
       <c r="C7">
-        <v>-0.07559094465513246</v>
+        <v>0.00153574056320004</v>
       </c>
       <c r="D7">
-        <v>-0.01905416732850028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.052732833670115</v>
+      </c>
+      <c r="E7">
+        <v>-0.009676762816786888</v>
+      </c>
+      <c r="F7">
+        <v>-0.04688700814897239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01043678101774068</v>
+        <v>0.05701252017342363</v>
       </c>
       <c r="C8">
-        <v>-0.0649956280346481</v>
+        <v>0.01353859350983074</v>
       </c>
       <c r="D8">
-        <v>0.008984921986629363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03332621160033743</v>
+      </c>
+      <c r="E8">
+        <v>-0.01712284869002307</v>
+      </c>
+      <c r="F8">
+        <v>0.02823408468092554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.04324952177402579</v>
+        <v>0.07120871800902863</v>
       </c>
       <c r="C9">
-        <v>-0.08697753526213489</v>
+        <v>-0.01070121974575223</v>
       </c>
       <c r="D9">
-        <v>-0.03990354874691726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08592850386188472</v>
+      </c>
+      <c r="E9">
+        <v>-0.02255355557209594</v>
+      </c>
+      <c r="F9">
+        <v>-0.04691238811438271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02108671465513188</v>
+        <v>0.09480784253155868</v>
       </c>
       <c r="C10">
-        <v>-0.03340812229782083</v>
+        <v>-0.02099640236267464</v>
       </c>
       <c r="D10">
-        <v>0.123067172683937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1699470526249505</v>
+      </c>
+      <c r="E10">
+        <v>0.03537687496987504</v>
+      </c>
+      <c r="F10">
+        <v>0.05327108632753491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04603726209978001</v>
+        <v>0.08734149833248656</v>
       </c>
       <c r="C11">
-        <v>-0.08860979917280581</v>
+        <v>-0.0105494589536173</v>
       </c>
       <c r="D11">
-        <v>-0.06499238260198066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1164922989691826</v>
+      </c>
+      <c r="E11">
+        <v>-0.0459076113968753</v>
+      </c>
+      <c r="F11">
+        <v>-0.02063713353783479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.04758671344984802</v>
+        <v>0.09212231434291394</v>
       </c>
       <c r="C12">
-        <v>-0.1015514117055661</v>
+        <v>-0.007820231192278211</v>
       </c>
       <c r="D12">
-        <v>-0.06398334095029147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.13183834776324</v>
+      </c>
+      <c r="E12">
+        <v>-0.04789905042084305</v>
+      </c>
+      <c r="F12">
+        <v>-0.02650907373769588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01801236010160187</v>
+        <v>0.04186592862702356</v>
       </c>
       <c r="C13">
-        <v>-0.04039451921187041</v>
+        <v>-0.002855051289549672</v>
       </c>
       <c r="D13">
-        <v>-0.03318253903330069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05228268833599015</v>
+      </c>
+      <c r="E13">
+        <v>0.00838226044275904</v>
+      </c>
+      <c r="F13">
+        <v>-0.003026979865113501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0212668238043498</v>
+        <v>0.02273234779846324</v>
       </c>
       <c r="C14">
-        <v>-0.01641291667303149</v>
+        <v>-0.01355731743861623</v>
       </c>
       <c r="D14">
-        <v>-0.007405336884947362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03366965771247529</v>
+      </c>
+      <c r="E14">
+        <v>-0.01787091360072329</v>
+      </c>
+      <c r="F14">
+        <v>-0.01435197043564041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01886787174475942</v>
+        <v>0.03315932904312574</v>
       </c>
       <c r="C15">
-        <v>-0.03231647563777885</v>
+        <v>-0.004779421705300182</v>
       </c>
       <c r="D15">
-        <v>-0.01098557027643714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04489950663067493</v>
+      </c>
+      <c r="E15">
+        <v>-0.005806325364590777</v>
+      </c>
+      <c r="F15">
+        <v>-0.02293855176065647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03599422570563988</v>
+        <v>0.0743010265694606</v>
       </c>
       <c r="C16">
-        <v>-0.08875705821480205</v>
+        <v>-0.001461224736867778</v>
       </c>
       <c r="D16">
-        <v>-0.05462512153581444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1257549665125573</v>
+      </c>
+      <c r="E16">
+        <v>-0.06157673814516121</v>
+      </c>
+      <c r="F16">
+        <v>-0.02416668526491311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03285727376250538</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003562282970287073</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01824153173042044</v>
+      </c>
+      <c r="E18">
+        <v>0.008073088538375907</v>
+      </c>
+      <c r="F18">
+        <v>0.006248932201720512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02461814019949022</v>
+        <v>0.06084841527824549</v>
       </c>
       <c r="C20">
-        <v>-0.05661503915644395</v>
+        <v>-0.0002618082475514747</v>
       </c>
       <c r="D20">
-        <v>-0.01509017799985134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07728519342633818</v>
+      </c>
+      <c r="E20">
+        <v>-0.05553434016657574</v>
+      </c>
+      <c r="F20">
+        <v>-0.02170048272834024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02071792792293433</v>
+        <v>0.04083676426089174</v>
       </c>
       <c r="C21">
-        <v>-0.02982255640266828</v>
+        <v>-0.006554509474376509</v>
       </c>
       <c r="D21">
-        <v>-0.006835595686037487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03678579523417101</v>
+      </c>
+      <c r="E21">
+        <v>0.005729115862601439</v>
+      </c>
+      <c r="F21">
+        <v>0.02409550393384771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.01074289353475013</v>
+        <v>0.04356340080939576</v>
       </c>
       <c r="C22">
-        <v>-0.02897085718459665</v>
+        <v>-0.0006605877611584056</v>
       </c>
       <c r="D22">
-        <v>0.03088758684804479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004816391136276489</v>
+      </c>
+      <c r="E22">
+        <v>-0.03062893512815405</v>
+      </c>
+      <c r="F22">
+        <v>0.03625701699618263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.01072406526797704</v>
+        <v>0.04354898947741015</v>
       </c>
       <c r="C23">
-        <v>-0.0289256426299163</v>
+        <v>-0.0006562030237725871</v>
       </c>
       <c r="D23">
-        <v>0.03094353463787374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004821115218732938</v>
+      </c>
+      <c r="E23">
+        <v>-0.03083032169570403</v>
+      </c>
+      <c r="F23">
+        <v>0.03622126248952912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03818878192025848</v>
+        <v>0.07997906296127537</v>
       </c>
       <c r="C24">
-        <v>-0.0978589441010488</v>
+        <v>-0.001905776957977658</v>
       </c>
       <c r="D24">
-        <v>-0.05973558879456048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1212739867258868</v>
+      </c>
+      <c r="E24">
+        <v>-0.04897274781873389</v>
+      </c>
+      <c r="F24">
+        <v>-0.02624548980579824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04074478096558069</v>
+        <v>0.0847015090754682</v>
       </c>
       <c r="C25">
-        <v>-0.09162521750353644</v>
+        <v>-0.004346688731791825</v>
       </c>
       <c r="D25">
-        <v>-0.07193406829440067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092134285062808</v>
+      </c>
+      <c r="E25">
+        <v>-0.03226273972852295</v>
+      </c>
+      <c r="F25">
+        <v>-0.02575179375058962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0318544049395725</v>
+        <v>0.05794815088929656</v>
       </c>
       <c r="C26">
-        <v>-0.03971389064342343</v>
+        <v>-0.01433326569097793</v>
       </c>
       <c r="D26">
-        <v>-0.008241055918184449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04015820193864314</v>
+      </c>
+      <c r="E26">
+        <v>-0.02825811236349048</v>
+      </c>
+      <c r="F26">
+        <v>0.01055078594400978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.02926528333147966</v>
+        <v>0.1401463093721884</v>
       </c>
       <c r="C28">
-        <v>-0.0744849006059969</v>
+        <v>-0.02069570009248056</v>
       </c>
       <c r="D28">
-        <v>0.2169900004102644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2618771013160587</v>
+      </c>
+      <c r="E28">
+        <v>0.0673483925181857</v>
+      </c>
+      <c r="F28">
+        <v>-0.0103016278615471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01749371106494228</v>
+        <v>0.02749279968463823</v>
       </c>
       <c r="C29">
-        <v>-0.01907391192870084</v>
+        <v>-0.008330808613388524</v>
       </c>
       <c r="D29">
-        <v>-0.005827515877790294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03211538043943415</v>
+      </c>
+      <c r="E29">
+        <v>-0.01142740317359398</v>
+      </c>
+      <c r="F29">
+        <v>0.01171213348851452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0394212283372211</v>
+        <v>0.06080386003339892</v>
       </c>
       <c r="C30">
-        <v>-0.1107052357088008</v>
+        <v>-0.003391828600447061</v>
       </c>
       <c r="D30">
-        <v>-0.04712316551243095</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08861227854794471</v>
+      </c>
+      <c r="E30">
+        <v>-0.01935161978178784</v>
+      </c>
+      <c r="F30">
+        <v>-0.08046278708401738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02641892809696464</v>
+        <v>0.05010200120997202</v>
       </c>
       <c r="C31">
-        <v>-0.02635481104641007</v>
+        <v>-0.01510283880299569</v>
       </c>
       <c r="D31">
-        <v>-0.01069576286403479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02486079479457735</v>
+      </c>
+      <c r="E31">
+        <v>-0.02753858436090515</v>
+      </c>
+      <c r="F31">
+        <v>0.002228039287415054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01771783492105372</v>
+        <v>0.04983785246586048</v>
       </c>
       <c r="C32">
-        <v>-0.04996302239184099</v>
+        <v>0.001585717986783198</v>
       </c>
       <c r="D32">
-        <v>0.002909807723783257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0368587992281483</v>
+      </c>
+      <c r="E32">
+        <v>-0.03178649379228526</v>
+      </c>
+      <c r="F32">
+        <v>-0.002090218403281795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.04507662362714635</v>
+        <v>0.08986680602493656</v>
       </c>
       <c r="C33">
-        <v>-0.1031542982166774</v>
+        <v>-0.007350551672394573</v>
       </c>
       <c r="D33">
-        <v>-0.0387175990827974</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09972508901684303</v>
+      </c>
+      <c r="E33">
+        <v>-0.04409587552922861</v>
+      </c>
+      <c r="F33">
+        <v>-0.03534199133934875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.041003050353982</v>
+        <v>0.06741596790971192</v>
       </c>
       <c r="C34">
-        <v>-0.07771933761214252</v>
+        <v>-0.0103432745356478</v>
       </c>
       <c r="D34">
-        <v>-0.06096313319317755</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.107757417136403</v>
+      </c>
+      <c r="E34">
+        <v>-0.0342169437134966</v>
+      </c>
+      <c r="F34">
+        <v>-0.03267405727647092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.008726098450921446</v>
+        <v>0.02438968648433629</v>
       </c>
       <c r="C35">
-        <v>-0.01813002871658011</v>
+        <v>-0.002365899301579725</v>
       </c>
       <c r="D35">
-        <v>-0.002321161612352861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01143738574642874</v>
+      </c>
+      <c r="E35">
+        <v>-0.01149584448919033</v>
+      </c>
+      <c r="F35">
+        <v>-0.000346493480011437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01300193596378661</v>
+        <v>0.02785463979133862</v>
       </c>
       <c r="C36">
-        <v>-0.005681321632796324</v>
+        <v>-0.006989012774230125</v>
       </c>
       <c r="D36">
-        <v>-0.02244906740185079</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03950247168399441</v>
+      </c>
+      <c r="E36">
+        <v>-0.01646252649084827</v>
+      </c>
+      <c r="F36">
+        <v>-0.01431519411508153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003409528751212007</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000135241449148971</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003276710382672708</v>
+      </c>
+      <c r="E37">
+        <v>0.0004219937573548919</v>
+      </c>
+      <c r="F37">
+        <v>-0.0008267271305373548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.00105785340127016</v>
+        <v>0.001430603468013462</v>
       </c>
       <c r="C38">
-        <v>-0.002974721581631447</v>
+        <v>-0.0002444487517575881</v>
       </c>
       <c r="D38">
-        <v>0.002297274586158518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003693401048798826</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003146465581673465</v>
+      </c>
+      <c r="F38">
+        <v>0.0008573485792676539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.06442478099158826</v>
+        <v>0.1053791991125566</v>
       </c>
       <c r="C39">
-        <v>-0.1305860678583399</v>
+        <v>-0.01572643569603466</v>
       </c>
       <c r="D39">
-        <v>-0.1110581044779577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1536366532555148</v>
+      </c>
+      <c r="E39">
+        <v>-0.05880778394377236</v>
+      </c>
+      <c r="F39">
+        <v>-0.02824544420831627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01658271408957622</v>
+        <v>0.04220580965176926</v>
       </c>
       <c r="C40">
-        <v>-0.02032388032138311</v>
+        <v>-0.006867831266116807</v>
       </c>
       <c r="D40">
-        <v>0.008366382077873828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03147929599346756</v>
+      </c>
+      <c r="E40">
+        <v>-0.00317806958775405</v>
+      </c>
+      <c r="F40">
+        <v>0.01673067964318944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01417007291387254</v>
+        <v>0.02808901286981762</v>
       </c>
       <c r="C41">
-        <v>-0.0144864877873672</v>
+        <v>-0.006845801422827288</v>
       </c>
       <c r="D41">
-        <v>0.006477568537792921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01006758883834208</v>
+      </c>
+      <c r="E41">
+        <v>-0.01241464335117859</v>
+      </c>
+      <c r="F41">
+        <v>0.006253035987500373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01710447408109131</v>
+        <v>0.04076705457755202</v>
       </c>
       <c r="C43">
-        <v>-0.0213183282971938</v>
+        <v>-0.006810715559706644</v>
       </c>
       <c r="D43">
-        <v>-0.001352777522199904</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01936002450967132</v>
+      </c>
+      <c r="E43">
+        <v>-0.02446410941723164</v>
+      </c>
+      <c r="F43">
+        <v>0.01333612793597521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05621700352628338</v>
+        <v>0.07959515344280789</v>
       </c>
       <c r="C44">
-        <v>-0.1013954703376172</v>
+        <v>-0.01980867242011835</v>
       </c>
       <c r="D44">
-        <v>-0.03311593644067181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09736056373271326</v>
+      </c>
+      <c r="E44">
+        <v>-0.06473240867182033</v>
+      </c>
+      <c r="F44">
+        <v>-0.1543859498238179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006702162050136023</v>
+        <v>0.02319313731506518</v>
       </c>
       <c r="C46">
-        <v>-0.007392752515102879</v>
+        <v>-0.003436786036473273</v>
       </c>
       <c r="D46">
-        <v>0.009815123265917153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01295310801201722</v>
+      </c>
+      <c r="E46">
+        <v>-0.02200910474020257</v>
+      </c>
+      <c r="F46">
+        <v>0.006745742971802567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01590079971853225</v>
+        <v>0.05154425343930332</v>
       </c>
       <c r="C47">
-        <v>-0.02704182376281635</v>
+        <v>-0.003248195054831416</v>
       </c>
       <c r="D47">
-        <v>0.02073896096932127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01447217245841289</v>
+      </c>
+      <c r="E47">
+        <v>-0.02370047241541127</v>
+      </c>
+      <c r="F47">
+        <v>0.0321474514989125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01986413007644418</v>
+        <v>0.04996569784223126</v>
       </c>
       <c r="C48">
-        <v>-0.04295667009063996</v>
+        <v>-0.002308407917002677</v>
       </c>
       <c r="D48">
-        <v>-0.03367791254524082</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04988365870981539</v>
+      </c>
+      <c r="E48">
+        <v>0.006260346567023006</v>
+      </c>
+      <c r="F48">
+        <v>-0.009136256295701518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.0850664258712954</v>
+        <v>0.2003395670991658</v>
       </c>
       <c r="C49">
-        <v>-0.2176769875120598</v>
+        <v>-0.01900046767373626</v>
       </c>
       <c r="D49">
-        <v>0.05248459459128466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007717228066507821</v>
+      </c>
+      <c r="E49">
+        <v>-0.03100119228472043</v>
+      </c>
+      <c r="F49">
+        <v>-0.0395669229641947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02439846464665091</v>
+        <v>0.05050580324583824</v>
       </c>
       <c r="C50">
-        <v>-0.03076897481035196</v>
+        <v>-0.01107080132167571</v>
       </c>
       <c r="D50">
-        <v>-0.008400798516175142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02395166890268055</v>
+      </c>
+      <c r="E50">
+        <v>-0.02979923638914793</v>
+      </c>
+      <c r="F50">
+        <v>-0.009186331783142977</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003618596075574577</v>
+        <v>0.0004234905393876944</v>
       </c>
       <c r="C51">
-        <v>-0.0008753283874398676</v>
+        <v>-0.0001238217034450994</v>
       </c>
       <c r="D51">
-        <v>0.0008799128882207867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002191672582100981</v>
+      </c>
+      <c r="E51">
+        <v>-3.783999082023375e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.00142777161866609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.06279762871808631</v>
+        <v>0.1464955919942316</v>
       </c>
       <c r="C52">
-        <v>-0.152045474316761</v>
+        <v>-0.01598611442961213</v>
       </c>
       <c r="D52">
-        <v>-0.0268979454733251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04405632493199053</v>
+      </c>
+      <c r="E52">
+        <v>-0.02046302646169492</v>
+      </c>
+      <c r="F52">
+        <v>-0.04129647665188275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.06797024733963303</v>
+        <v>0.171894640681492</v>
       </c>
       <c r="C53">
-        <v>-0.167080670894943</v>
+        <v>-0.01907183880944171</v>
       </c>
       <c r="D53">
-        <v>0.007820946541606824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006420233683073089</v>
+      </c>
+      <c r="E53">
+        <v>-0.03220890348031239</v>
+      </c>
+      <c r="F53">
+        <v>-0.07221413392205793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02164598439887072</v>
+        <v>0.02216359140395414</v>
       </c>
       <c r="C54">
-        <v>-0.03016762392434852</v>
+        <v>-0.01212137747565376</v>
       </c>
       <c r="D54">
-        <v>-0.006493694293554524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03415334142561915</v>
+      </c>
+      <c r="E54">
+        <v>-0.01827281545377767</v>
+      </c>
+      <c r="F54">
+        <v>0.004854799955839167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.04550256886597056</v>
+        <v>0.1140929141089534</v>
       </c>
       <c r="C55">
-        <v>-0.09360277257853898</v>
+        <v>-0.01659214368180286</v>
       </c>
       <c r="D55">
-        <v>-0.002913611393722507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0092615401123835</v>
+      </c>
+      <c r="E55">
+        <v>-0.02822146346227716</v>
+      </c>
+      <c r="F55">
+        <v>-0.04674712171014567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.06254334000147714</v>
+        <v>0.1769422786884888</v>
       </c>
       <c r="C56">
-        <v>-0.154261159634042</v>
+        <v>-0.01665671926530105</v>
       </c>
       <c r="D56">
-        <v>0.01488278551522295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0002670436545104337</v>
+      </c>
+      <c r="E56">
+        <v>-0.03567334644365205</v>
+      </c>
+      <c r="F56">
+        <v>-0.05103203677798786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02146811016748951</v>
+        <v>0.04616008815511551</v>
       </c>
       <c r="C58">
-        <v>-0.04449408595823912</v>
+        <v>-0.000101425150762584</v>
       </c>
       <c r="D58">
-        <v>-0.025216694033039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06793722441590107</v>
+      </c>
+      <c r="E58">
+        <v>-0.02692734291455638</v>
+      </c>
+      <c r="F58">
+        <v>0.03580498074840614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.04501055037400326</v>
+        <v>0.1680617877440837</v>
       </c>
       <c r="C59">
-        <v>-0.1243233496057779</v>
+        <v>-0.02128354823945551</v>
       </c>
       <c r="D59">
-        <v>0.2138284981944596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2191276398372664</v>
+      </c>
+      <c r="E59">
+        <v>0.04659073494389911</v>
+      </c>
+      <c r="F59">
+        <v>0.03496484331445791</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.07834080213359081</v>
+        <v>0.2319809021424721</v>
       </c>
       <c r="C60">
-        <v>-0.2565507890460544</v>
+        <v>0.002814316800846452</v>
       </c>
       <c r="D60">
-        <v>-0.002424663852330222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04266002647147291</v>
+      </c>
+      <c r="E60">
+        <v>-0.01162881899886029</v>
+      </c>
+      <c r="F60">
+        <v>0.005176790782490439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.05224728211382327</v>
+        <v>0.0815729300005755</v>
       </c>
       <c r="C61">
-        <v>-0.1185921501103164</v>
+        <v>-0.01155819896853771</v>
       </c>
       <c r="D61">
-        <v>-0.05404433266586417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1169008650239832</v>
+      </c>
+      <c r="E61">
+        <v>-0.03873832157286979</v>
+      </c>
+      <c r="F61">
+        <v>-0.01039387420390916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.06667390323780308</v>
+        <v>0.170021800512234</v>
       </c>
       <c r="C62">
-        <v>-0.1541966377248278</v>
+        <v>-0.01995309063537247</v>
       </c>
       <c r="D62">
-        <v>0.01400705246303881</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006293796687887197</v>
+      </c>
+      <c r="E62">
+        <v>-0.03489133094310523</v>
+      </c>
+      <c r="F62">
+        <v>-0.03242348350814928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.02000412115111062</v>
+        <v>0.04609341662985909</v>
       </c>
       <c r="C63">
-        <v>-0.04459316130225602</v>
+        <v>-0.001758008935366241</v>
       </c>
       <c r="D63">
-        <v>-0.03096865526590217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05821369209668236</v>
+      </c>
+      <c r="E63">
+        <v>-0.02135773848718728</v>
+      </c>
+      <c r="F63">
+        <v>-0.004897064328100134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.04228330871596304</v>
+        <v>0.1103155247939788</v>
       </c>
       <c r="C64">
-        <v>-0.08391213947796387</v>
+        <v>-0.01102459159468349</v>
       </c>
       <c r="D64">
-        <v>-0.00836066830664953</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04359378034666621</v>
+      </c>
+      <c r="E64">
+        <v>-0.024871786813041</v>
+      </c>
+      <c r="F64">
+        <v>-0.02545350800443628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.06776018645871053</v>
+        <v>0.1476351312535844</v>
       </c>
       <c r="C65">
-        <v>-0.1101121881671798</v>
+        <v>-0.03271636125833904</v>
       </c>
       <c r="D65">
-        <v>0.03331396312524729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04028672992901092</v>
+      </c>
+      <c r="E65">
+        <v>-0.005703362762948405</v>
+      </c>
+      <c r="F65">
+        <v>-0.04084914537985561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.07147029783935938</v>
+        <v>0.1247519540904487</v>
       </c>
       <c r="C66">
-        <v>-0.1672867590583134</v>
+        <v>-0.01381244373923105</v>
       </c>
       <c r="D66">
-        <v>-0.09323955032442599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423843332351408</v>
+      </c>
+      <c r="E66">
+        <v>-0.06624839647685284</v>
+      </c>
+      <c r="F66">
+        <v>-0.03088942975924116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.02550188982676367</v>
+        <v>0.06065374841513656</v>
       </c>
       <c r="C67">
-        <v>-0.06308552773387405</v>
+        <v>-0.003311271387742637</v>
       </c>
       <c r="D67">
-        <v>-0.01626581467777899</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05532019480783924</v>
+      </c>
+      <c r="E67">
+        <v>-0.01746412736326238</v>
+      </c>
+      <c r="F67">
+        <v>0.03411269862011497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.03236165521953187</v>
+        <v>0.1160316443455981</v>
       </c>
       <c r="C68">
-        <v>-0.04900348645280989</v>
+        <v>-0.03161253873383157</v>
       </c>
       <c r="D68">
-        <v>0.1880631362269053</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605340589787977</v>
+      </c>
+      <c r="E68">
+        <v>0.08613285564659691</v>
+      </c>
+      <c r="F68">
+        <v>-0.006585741356616891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01255184997140188</v>
+        <v>0.03999598221127982</v>
       </c>
       <c r="C69">
-        <v>-0.03254579786537514</v>
+        <v>-0.001334086563891351</v>
       </c>
       <c r="D69">
-        <v>0.01741303937552233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007232746234647374</v>
+      </c>
+      <c r="E69">
+        <v>-0.02270151657595341</v>
+      </c>
+      <c r="F69">
+        <v>5.046542232467423e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0111288578596141</v>
+        <v>0.06579339004034582</v>
       </c>
       <c r="C70">
-        <v>-0.02551877581068058</v>
+        <v>0.02781179196670438</v>
       </c>
       <c r="D70">
-        <v>0.04692681220958167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.024525053946046</v>
+      </c>
+      <c r="E70">
+        <v>0.0395204849731286</v>
+      </c>
+      <c r="F70">
+        <v>0.1832493134795898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.0406849221712704</v>
+        <v>0.1360380201137097</v>
       </c>
       <c r="C71">
-        <v>-0.06585933533974363</v>
+        <v>-0.03591781029562186</v>
       </c>
       <c r="D71">
-        <v>0.2079019131243902</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2733008972139014</v>
+      </c>
+      <c r="E71">
+        <v>0.09603871962025741</v>
+      </c>
+      <c r="F71">
+        <v>-0.01233860853606704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.06221968432998232</v>
+        <v>0.1417210965299328</v>
       </c>
       <c r="C72">
-        <v>-0.1157862129623516</v>
+        <v>-0.02600688347444579</v>
       </c>
       <c r="D72">
-        <v>0.02820442973733682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0005144048162896538</v>
+      </c>
+      <c r="E72">
+        <v>-0.03872387813152627</v>
+      </c>
+      <c r="F72">
+        <v>-0.03357862302210518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.07419568117448709</v>
+        <v>0.2014929145280924</v>
       </c>
       <c r="C73">
-        <v>-0.1935689934906273</v>
+        <v>-0.0121030892119769</v>
       </c>
       <c r="D73">
-        <v>0.04815593727187522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01728267668329976</v>
+      </c>
+      <c r="E73">
+        <v>-0.06361604868321506</v>
+      </c>
+      <c r="F73">
+        <v>-0.03738225873858512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.04331919001636206</v>
+        <v>0.09469724061295291</v>
       </c>
       <c r="C74">
-        <v>-0.1023529578223475</v>
+        <v>-0.01319264593001091</v>
       </c>
       <c r="D74">
-        <v>0.01333904130695162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01729079553398975</v>
+      </c>
+      <c r="E74">
+        <v>-0.0443368324526115</v>
+      </c>
+      <c r="F74">
+        <v>-0.05663256674430184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.06805086303278256</v>
+        <v>0.1278581072980545</v>
       </c>
       <c r="C75">
-        <v>-0.126047388602366</v>
+        <v>-0.0279065269117049</v>
       </c>
       <c r="D75">
-        <v>0.01914143083830936</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03019657095959981</v>
+      </c>
+      <c r="E75">
+        <v>-0.05821084346972668</v>
+      </c>
+      <c r="F75">
+        <v>-0.01917338021848231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>6.589183051766324e-05</v>
+        <v>6.503933412968227e-05</v>
       </c>
       <c r="C76">
-        <v>-0.0001251685995920432</v>
+        <v>-5.271357059305553e-05</v>
       </c>
       <c r="D76">
-        <v>0.0005443549586391433</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0003912845397724398</v>
+      </c>
+      <c r="E76">
+        <v>0.0002344239386466232</v>
+      </c>
+      <c r="F76">
+        <v>-0.0004346539208157212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.04130132632774879</v>
+        <v>0.08699552314069302</v>
       </c>
       <c r="C77">
-        <v>-0.08859266917293564</v>
+        <v>-0.008043038880209781</v>
       </c>
       <c r="D77">
-        <v>-0.07099235609557128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1127044430250162</v>
+      </c>
+      <c r="E77">
+        <v>-0.03850366503229544</v>
+      </c>
+      <c r="F77">
+        <v>-0.03119501340513392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.08702592494198744</v>
+        <v>0.1008087176592969</v>
       </c>
       <c r="C78">
-        <v>-0.1337027660588778</v>
+        <v>-0.03951833859404181</v>
       </c>
       <c r="D78">
-        <v>0.01286992397437253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1158720470775725</v>
+      </c>
+      <c r="E78">
+        <v>-0.07404232327334855</v>
+      </c>
+      <c r="F78">
+        <v>-0.04553999720127332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.06624816254961365</v>
+        <v>0.164514873089868</v>
       </c>
       <c r="C79">
-        <v>-0.1374366913790031</v>
+        <v>-0.02245575229793193</v>
       </c>
       <c r="D79">
-        <v>0.02659027840407353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01448211678035667</v>
+      </c>
+      <c r="E79">
+        <v>-0.04618672735407793</v>
+      </c>
+      <c r="F79">
+        <v>-0.01012460526349119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.02852501068023439</v>
+        <v>0.08300883350057271</v>
       </c>
       <c r="C80">
-        <v>-0.08674136058883135</v>
+        <v>0.0009233680855607826</v>
       </c>
       <c r="D80">
-        <v>-0.01503333741158478</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05620935409669266</v>
+      </c>
+      <c r="E80">
+        <v>-0.03646091571310347</v>
+      </c>
+      <c r="F80">
+        <v>0.02288215481483879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.06740710840225007</v>
+        <v>0.1211628604858248</v>
       </c>
       <c r="C81">
-        <v>-0.1186949466844186</v>
+        <v>-0.03178863315895956</v>
       </c>
       <c r="D81">
-        <v>0.003112395389114774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01522448154697082</v>
+      </c>
+      <c r="E81">
+        <v>-0.05714194225106749</v>
+      </c>
+      <c r="F81">
+        <v>-0.01659106092757721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.06904485733323851</v>
+        <v>0.1658275948150022</v>
       </c>
       <c r="C82">
-        <v>-0.1481273694122568</v>
+        <v>-0.02418334435966004</v>
       </c>
       <c r="D82">
-        <v>0.007261010750751863</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004351962904404758</v>
+      </c>
+      <c r="E82">
+        <v>-0.02899942859439652</v>
+      </c>
+      <c r="F82">
+        <v>-0.0809209675369205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02852724510423802</v>
+        <v>0.05990099435488434</v>
       </c>
       <c r="C83">
-        <v>-0.0624629401426024</v>
+        <v>-0.002744630750288978</v>
       </c>
       <c r="D83">
-        <v>-0.02079023238652924</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05122274231928779</v>
+      </c>
+      <c r="E83">
+        <v>-0.005068071271551571</v>
+      </c>
+      <c r="F83">
+        <v>0.0312421879041581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03757533018969157</v>
+        <v>0.05886603789407109</v>
       </c>
       <c r="C84">
-        <v>-0.06706836587903256</v>
+        <v>-0.01113975756151961</v>
       </c>
       <c r="D84">
-        <v>-0.03458272259533959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06329647022903823</v>
+      </c>
+      <c r="E84">
+        <v>-0.006200718446950667</v>
+      </c>
+      <c r="F84">
+        <v>-0.003857905607938156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.06495736892992414</v>
+        <v>0.1367444188083958</v>
       </c>
       <c r="C85">
-        <v>-0.1175891768836749</v>
+        <v>-0.02772657581148629</v>
       </c>
       <c r="D85">
-        <v>0.009552614233804279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01012431255913564</v>
+      </c>
+      <c r="E85">
+        <v>-0.03841276804723594</v>
+      </c>
+      <c r="F85">
+        <v>-0.04548751982435883</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0256424779330654</v>
+        <v>0.09472055151638288</v>
       </c>
       <c r="C86">
-        <v>-0.08092258804159722</v>
+        <v>0.005559837119488334</v>
       </c>
       <c r="D86">
-        <v>0.1273101293927114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03832283021926057</v>
+      </c>
+      <c r="E86">
+        <v>-0.2095816136117559</v>
+      </c>
+      <c r="F86">
+        <v>0.9103010701007069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.06661068334529507</v>
+        <v>0.09683019761779521</v>
       </c>
       <c r="C87">
-        <v>-0.1246299590834248</v>
+        <v>-0.01997169582966067</v>
       </c>
       <c r="D87">
-        <v>-0.06605296659604777</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09437442045040131</v>
+      </c>
+      <c r="E87">
+        <v>0.05192902434708171</v>
+      </c>
+      <c r="F87">
+        <v>-0.05068292887105529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02343381237326132</v>
+        <v>0.06107715083902763</v>
       </c>
       <c r="C88">
-        <v>-0.05071150401307113</v>
+        <v>-0.002187281346380881</v>
       </c>
       <c r="D88">
-        <v>-0.01489940961807306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04946850638583977</v>
+      </c>
+      <c r="E88">
+        <v>-0.02466007396880316</v>
+      </c>
+      <c r="F88">
+        <v>-0.012024590476572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.02381388050090288</v>
+        <v>0.1332748170430635</v>
       </c>
       <c r="C89">
-        <v>-0.07825202179744253</v>
+        <v>-0.01312434343623163</v>
       </c>
       <c r="D89">
-        <v>0.2267106962929392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2500334119159323</v>
+      </c>
+      <c r="E89">
+        <v>0.0907380600420242</v>
+      </c>
+      <c r="F89">
+        <v>0.007359557398087097</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.03893778466652813</v>
+        <v>0.150488763447114</v>
       </c>
       <c r="C90">
-        <v>-0.06445848546406478</v>
+        <v>-0.03233974790858181</v>
       </c>
       <c r="D90">
-        <v>0.2061432418938308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2703433891705467</v>
+      </c>
+      <c r="E90">
+        <v>0.1126051019322134</v>
+      </c>
+      <c r="F90">
+        <v>0.00197500727221711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0474873474301867</v>
+        <v>0.1206725772864241</v>
       </c>
       <c r="C91">
-        <v>-0.104406143978523</v>
+        <v>-0.01898791033843693</v>
       </c>
       <c r="D91">
-        <v>0.03361266063842488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01332842610686982</v>
+      </c>
+      <c r="E91">
+        <v>-0.05653309929719967</v>
+      </c>
+      <c r="F91">
+        <v>0.00235867259000658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.02998005469993846</v>
+        <v>0.1474983375473442</v>
       </c>
       <c r="C92">
-        <v>-0.08642013924948094</v>
+        <v>-0.02381106828304453</v>
       </c>
       <c r="D92">
-        <v>0.2357272176598126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2925420629208147</v>
+      </c>
+      <c r="E92">
+        <v>0.1015058810427419</v>
+      </c>
+      <c r="F92">
+        <v>0.01175359794271157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0387565595527295</v>
+        <v>0.1520929458311172</v>
       </c>
       <c r="C93">
-        <v>-0.08210586950023172</v>
+        <v>-0.02799703599331632</v>
       </c>
       <c r="D93">
-        <v>0.2353491181422561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2692231282822046</v>
+      </c>
+      <c r="E93">
+        <v>0.07770563350736025</v>
+      </c>
+      <c r="F93">
+        <v>-0.004275833162792508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.06627127345041882</v>
+        <v>0.1302780877991786</v>
       </c>
       <c r="C94">
-        <v>-0.1358427237338677</v>
+        <v>-0.0245980520672168</v>
       </c>
       <c r="D94">
-        <v>-0.004260246596014679</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0430253097537143</v>
+      </c>
+      <c r="E94">
+        <v>-0.05798174168702894</v>
+      </c>
+      <c r="F94">
+        <v>-0.0354939319725126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.04770889427462664</v>
+        <v>0.1269018090230001</v>
       </c>
       <c r="C95">
-        <v>-0.1158771264319732</v>
+        <v>-0.003438589497031775</v>
       </c>
       <c r="D95">
-        <v>-0.05466539707435845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09235574981001128</v>
+      </c>
+      <c r="E95">
+        <v>-0.0464822604524905</v>
+      </c>
+      <c r="F95">
+        <v>0.007456163046281739</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9139746017146264</v>
+        <v>0.1064615820260673</v>
       </c>
       <c r="C96">
-        <v>-0.3947556036489717</v>
+        <v>0.987492233711625</v>
       </c>
       <c r="D96">
-        <v>0.02160074619301965</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04806718831546875</v>
+      </c>
+      <c r="E96">
+        <v>-0.05548586038451986</v>
+      </c>
+      <c r="F96">
+        <v>-0.04151243184847148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.04226908693062684</v>
+        <v>0.1927485301534844</v>
       </c>
       <c r="C97">
-        <v>-0.1569870980527954</v>
+        <v>0.007378103741427777</v>
       </c>
       <c r="D97">
-        <v>0.07316169391918598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01690256782921641</v>
+      </c>
+      <c r="E97">
+        <v>-0.01855296418903739</v>
+      </c>
+      <c r="F97">
+        <v>0.08845475323760804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.06422908942359039</v>
+        <v>0.2047172173146043</v>
       </c>
       <c r="C98">
-        <v>-0.1917959700169957</v>
+        <v>-0.006929716554571198</v>
       </c>
       <c r="D98">
-        <v>0.003964951704014119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01410257434108664</v>
+      </c>
+      <c r="E98">
+        <v>0.08368467668439757</v>
+      </c>
+      <c r="F98">
+        <v>0.0924212090257843</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.01462042652891611</v>
+        <v>0.05548191452747808</v>
       </c>
       <c r="C99">
-        <v>-0.05738725424814805</v>
+        <v>0.004715009451065088</v>
       </c>
       <c r="D99">
-        <v>-0.004131318604443596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0394448913012546</v>
+      </c>
+      <c r="E99">
+        <v>-0.02278954237560473</v>
+      </c>
+      <c r="F99">
+        <v>-0.0007285688624893587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.01862824549618852</v>
+        <v>0.1258868909220267</v>
       </c>
       <c r="C100">
-        <v>-0.1360283257557618</v>
+        <v>0.05440443081732695</v>
       </c>
       <c r="D100">
-        <v>-0.7019045183754847</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3429995744029182</v>
+      </c>
+      <c r="E100">
+        <v>0.8899094432174677</v>
+      </c>
+      <c r="F100">
+        <v>0.1393777426955921</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01734370671259837</v>
+        <v>0.02744927492508971</v>
       </c>
       <c r="C101">
-        <v>-0.01864238698257539</v>
+        <v>-0.008355287386062402</v>
       </c>
       <c r="D101">
-        <v>-0.004864451134206314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03172351710720276</v>
+      </c>
+      <c r="E101">
+        <v>-0.01079434489729947</v>
+      </c>
+      <c r="F101">
+        <v>0.0129018900343523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
